--- a/ladun/file_import/DATA_SISWA.xlsx
+++ b/ladun/file_import/DATA_SISWA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Django\algoritmaC5PemahamanSiswa\ladun\file_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9D97E-D7AE-4957-AB2F-E1447356F640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE6FC2-FB97-4685-9D4A-74551A04DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="599">
   <si>
     <t>No.</t>
   </si>
@@ -1824,6 +1824,9 @@
   </si>
   <si>
     <t>Serius santai</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2252,7 @@
   <dimension ref="A1:U270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,7 +3132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>243</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>244</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>245</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>246</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>247</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>258</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>259</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>260</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>261</v>
       </c>
@@ -3551,8 +3554,11 @@
       <c r="O25" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>262</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>263</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>264</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>265</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>266</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>267</v>
       </c>
@@ -3834,7 +3840,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>268</v>
       </c>

--- a/ladun/file_import/DATA_SISWA.xlsx
+++ b/ladun/file_import/DATA_SISWA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Django\algoritmaC5PemahamanSiswa\ladun\file_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE6FC2-FB97-4685-9D4A-74551A04DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3CC04F-B3F5-40CE-B5E6-9D6EF56A36CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="593">
   <si>
     <t>No.</t>
   </si>
@@ -1806,24 +1806,6 @@
   </si>
   <si>
     <t>bb</t>
-  </si>
-  <si>
-    <t>1.Hitung diagnosa</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Entrophy</t>
-  </si>
-  <si>
-    <t>2. Hitung Entropy gejala</t>
-  </si>
-  <si>
-    <t>a. Penyampaian materi</t>
-  </si>
-  <si>
-    <t>Serius santai</t>
   </si>
   <si>
     <t>c</t>
@@ -2249,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U270"/>
+  <dimension ref="A1:Q270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,12 +2242,12 @@
     <col min="1" max="1" width="5.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="7" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="7" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" style="7" customWidth="1"/>
@@ -2279,7 +2261,7 @@
     <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2289,23 +2271,23 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>572</v>
@@ -2326,7 +2308,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>228</v>
       </c>
@@ -2337,18 +2319,18 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2373,7 +2355,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>229</v>
       </c>
@@ -2384,22 +2366,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>578</v>
@@ -2420,7 +2402,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>230</v>
       </c>
@@ -2431,17 +2413,17 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H4" s="3" t="s">
         <v>578</v>
       </c>
@@ -2466,11 +2448,8 @@
       <c r="O4" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>231</v>
       </c>
@@ -2481,22 +2460,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>578</v>
@@ -2516,27 +2495,8 @@
       <c r="O5" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="R5" s="7">
-        <f>COUNTIF(O2:O270,"Tinggi")</f>
-        <v>168</v>
-      </c>
-      <c r="S5" s="7">
-        <f>R5/R7</f>
-        <v>0.62453531598513012</v>
-      </c>
-      <c r="T5" s="7">
-        <f>LOG(S5)</f>
-        <v>-0.20444299827654511</v>
-      </c>
-      <c r="U5" s="7">
-        <f>LOG(2)</f>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>232</v>
       </c>
@@ -2546,20 +2506,20 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>578</v>
+      <c r="H6" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>578</v>
@@ -2582,27 +2542,8 @@
       <c r="O6" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="R6" s="7">
-        <f>COUNTIF(O2:O270,"Rendah")</f>
-        <v>101</v>
-      </c>
-      <c r="S6" s="7">
-        <f>R6/R7</f>
-        <v>0.37546468401486988</v>
-      </c>
-      <c r="T6" s="7">
-        <f>LOG(S6)</f>
-        <v>-0.42543090621976543</v>
-      </c>
-      <c r="U6" s="7">
-        <f>LOG(2)</f>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>233</v>
       </c>
@@ -2612,20 +2553,20 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>578</v>
+      <c r="H7" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>578</v>
@@ -2648,15 +2589,8 @@
       <c r="O7" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="R7" s="7">
-        <f>SUM(R5:R6)</f>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>234</v>
       </c>
@@ -2666,23 +2600,23 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>580</v>
+      <c r="H8" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>578</v>
@@ -2702,23 +2636,8 @@
       <c r="O8" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q8" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="R8" s="7">
-        <f>-S5*(T5/U5)</f>
-        <v>0.42414999956387034</v>
-      </c>
-      <c r="S8" s="7">
-        <f>-S6*(T6/U6)</f>
-        <v>0.53062579501965712</v>
-      </c>
-      <c r="T8" s="7">
-        <f>(R8+S8)</f>
-        <v>0.95477579458352746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>235</v>
       </c>
@@ -2728,19 +2647,19 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2765,7 +2684,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>236</v>
       </c>
@@ -2775,23 +2694,23 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>578</v>
+      <c r="H10" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>578</v>
@@ -2811,11 +2730,8 @@
       <c r="O10" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>237</v>
       </c>
@@ -2825,23 +2741,23 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>580</v>
+      <c r="H11" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>580</v>
@@ -2861,11 +2777,8 @@
       <c r="O11" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>238</v>
       </c>
@@ -2876,17 +2789,17 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>578</v>
       </c>
@@ -2911,15 +2824,8 @@
       <c r="O12" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="R12" s="7">
-        <f>COUNTIF($D$2:$D$270,"Serius Santai")</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>239</v>
       </c>
@@ -2930,22 +2836,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>580</v>
@@ -2965,15 +2871,8 @@
       <c r="O13" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="7">
-        <f>COUNTIF($D$2:$D$270,"Serius")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>240</v>
       </c>
@@ -2984,22 +2883,22 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>580</v>
@@ -3019,15 +2918,8 @@
       <c r="O14" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="7">
-        <f>COUNTIF($D$2:$D$270,"Santai")</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>241</v>
       </c>
@@ -3038,22 +2930,22 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>580</v>
@@ -3073,15 +2965,8 @@
       <c r="O15" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="Q15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="R15" s="7">
-        <f>COUNTIF($D$2:$D$270,"Membosankan")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>242</v>
       </c>
@@ -3092,22 +2977,22 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H16" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>580</v>
@@ -3126,10 +3011,6 @@
       </c>
       <c r="O16" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="R16" s="7">
-        <f>SUM(R12:R15)</f>
-        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3143,22 +3024,22 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>579</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>580</v>
@@ -3190,22 +3071,22 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>579</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>578</v>
@@ -3237,22 +3118,22 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>578</v>
@@ -3284,22 +3165,22 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>580</v>
@@ -3331,16 +3212,16 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>578</v>
@@ -3378,16 +3259,16 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>578</v>
@@ -3425,19 +3306,19 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>578</v>
@@ -3472,16 +3353,16 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>578</v>
@@ -3519,19 +3400,19 @@
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>580</v>
@@ -3555,7 +3436,7 @@
         <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -3569,22 +3450,22 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>580</v>
@@ -3616,19 +3497,19 @@
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>580</v>
@@ -3663,19 +3544,19 @@
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>578</v>
@@ -3710,16 +3591,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>578</v>
@@ -3757,22 +3638,22 @@
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H30" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>578</v>
@@ -3804,22 +3685,22 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H31" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>579</v>
@@ -3851,22 +3732,22 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>578</v>
@@ -3898,22 +3779,22 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>578</v>
@@ -3945,22 +3826,22 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H34" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>578</v>
@@ -3992,22 +3873,22 @@
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>578</v>
@@ -4039,22 +3920,22 @@
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>578</v>
@@ -4086,22 +3967,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>578</v>
@@ -4133,22 +4014,22 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H38" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>580</v>
@@ -4180,22 +4061,22 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>578</v>
@@ -4227,22 +4108,22 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H40" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>578</v>
@@ -4274,16 +4155,16 @@
         <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>578</v>
@@ -4321,16 +4202,16 @@
         <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>578</v>
@@ -4368,22 +4249,22 @@
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>578</v>
@@ -4415,22 +4296,22 @@
         <v>6</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>580</v>
@@ -4462,16 +4343,16 @@
         <v>6</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>578</v>
@@ -4509,19 +4390,19 @@
         <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>578</v>
@@ -4556,19 +4437,19 @@
         <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>578</v>
@@ -4603,19 +4484,19 @@
         <v>6</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>578</v>
@@ -4650,22 +4531,22 @@
         <v>6</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>578</v>
@@ -4697,22 +4578,22 @@
         <v>6</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H50" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>578</v>
@@ -4744,16 +4625,16 @@
         <v>6</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>578</v>
@@ -4791,22 +4672,22 @@
         <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>578</v>
@@ -4838,22 +4719,22 @@
         <v>6</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>578</v>
@@ -4885,22 +4766,22 @@
         <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>578</v>
@@ -4932,22 +4813,22 @@
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H55" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>578</v>
@@ -4979,19 +4860,19 @@
         <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>578</v>
@@ -5026,22 +4907,22 @@
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>578</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>578</v>
@@ -5073,22 +4954,22 @@
         <v>6</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>578</v>
@@ -5120,22 +5001,22 @@
         <v>6</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>578</v>
@@ -5167,22 +5048,22 @@
         <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>579</v>
@@ -5214,22 +5095,22 @@
         <v>55</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>578</v>
@@ -5261,22 +5142,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>578</v>
@@ -5308,19 +5189,19 @@
         <v>55</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>578</v>
@@ -5355,16 +5236,16 @@
         <v>55</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>578</v>
@@ -5402,22 +5283,22 @@
         <v>55</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G65" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>578</v>
@@ -5449,19 +5330,19 @@
         <v>55</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>578</v>
@@ -5496,19 +5377,19 @@
         <v>55</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>578</v>
@@ -5543,22 +5424,22 @@
         <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>578</v>
@@ -5590,16 +5471,16 @@
         <v>55</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>580</v>
@@ -5637,22 +5518,22 @@
         <v>55</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>578</v>
@@ -5684,16 +5565,16 @@
         <v>55</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G71" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>578</v>
@@ -5731,22 +5612,22 @@
         <v>55</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H72" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>579</v>
@@ -5778,19 +5659,19 @@
         <v>55</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>578</v>
@@ -5825,22 +5706,22 @@
         <v>55</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>578</v>
@@ -5872,22 +5753,22 @@
         <v>55</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G75" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>578</v>
@@ -5919,19 +5800,19 @@
         <v>55</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G76" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>580</v>
@@ -5966,16 +5847,16 @@
         <v>55</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G77" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>578</v>
@@ -6013,22 +5894,22 @@
         <v>55</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="I78" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>578</v>
@@ -6060,22 +5941,22 @@
         <v>55</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G79" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>578</v>
@@ -6107,22 +5988,22 @@
         <v>55</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G80" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>579</v>
@@ -6154,22 +6035,22 @@
         <v>55</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G81" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>578</v>
@@ -6201,16 +6082,16 @@
         <v>55</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G82" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>578</v>
@@ -6248,22 +6129,22 @@
         <v>55</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G83" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>578</v>
@@ -6295,22 +6176,22 @@
         <v>55</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H84" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>579</v>
@@ -6342,19 +6223,19 @@
         <v>55</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>578</v>
@@ -6389,16 +6270,16 @@
         <v>77</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>578</v>
@@ -6436,16 +6317,16 @@
         <v>77</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>578</v>
@@ -6483,22 +6364,22 @@
         <v>77</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>578</v>
@@ -6530,22 +6411,22 @@
         <v>77</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>578</v>
@@ -6577,16 +6458,16 @@
         <v>77</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>580</v>
@@ -6624,22 +6505,22 @@
         <v>77</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G91" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>584</v>
@@ -6671,22 +6552,22 @@
         <v>77</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>578</v>
@@ -6718,22 +6599,22 @@
         <v>77</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>578</v>
@@ -6765,22 +6646,22 @@
         <v>77</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>578</v>
@@ -6812,22 +6693,22 @@
         <v>77</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>580</v>
@@ -6859,22 +6740,22 @@
         <v>77</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>578</v>
@@ -6906,16 +6787,16 @@
         <v>77</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>578</v>
@@ -6953,16 +6834,16 @@
         <v>77</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G98" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>578</v>
@@ -7000,22 +6881,22 @@
         <v>77</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G99" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>580</v>
@@ -7047,22 +6928,22 @@
         <v>77</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>578</v>
@@ -7094,22 +6975,22 @@
         <v>77</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G101" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>578</v>
@@ -7141,22 +7022,22 @@
         <v>77</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>578</v>
@@ -7188,22 +7069,22 @@
         <v>77</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>578</v>
@@ -7235,22 +7116,22 @@
         <v>77</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>578</v>
@@ -7282,22 +7163,22 @@
         <v>77</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>578</v>
@@ -7329,22 +7210,22 @@
         <v>77</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G106" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>579</v>
@@ -7376,16 +7257,16 @@
         <v>77</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G107" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>578</v>
@@ -7423,22 +7304,22 @@
         <v>77</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>584</v>
@@ -7470,16 +7351,16 @@
         <v>77</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G109" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>578</v>
@@ -7517,22 +7398,22 @@
         <v>77</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G110" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>578</v>
@@ -7564,22 +7445,22 @@
         <v>77</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>578</v>
@@ -7611,22 +7492,22 @@
         <v>77</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>578</v>
@@ -7658,22 +7539,22 @@
         <v>77</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G113" s="2" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>578</v>
@@ -7704,17 +7585,17 @@
       <c r="C114" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>578</v>
+      <c r="G114" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>578</v>
@@ -7751,20 +7632,20 @@
       <c r="C115" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>580</v>
+      <c r="G115" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>578</v>
@@ -7798,17 +7679,17 @@
       <c r="C116" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>578</v>
+      <c r="G116" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>578</v>
@@ -7845,23 +7726,23 @@
       <c r="C117" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>578</v>
+      <c r="G117" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>578</v>
@@ -7892,17 +7773,17 @@
       <c r="C118" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>578</v>
+      <c r="G118" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>578</v>
@@ -7939,23 +7820,23 @@
       <c r="C119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>578</v>
+      <c r="G119" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>579</v>
@@ -7986,17 +7867,17 @@
       <c r="C120" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>578</v>
+      <c r="G120" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>578</v>
@@ -8033,23 +7914,23 @@
       <c r="C121" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>578</v>
+      <c r="G121" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>579</v>
@@ -8080,23 +7961,23 @@
       <c r="C122" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>578</v>
+      <c r="G122" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>578</v>
@@ -8127,17 +8008,17 @@
       <c r="C123" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>580</v>
+      <c r="G123" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>580</v>
@@ -8174,17 +8055,17 @@
       <c r="C124" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>578</v>
+      <c r="G124" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>578</v>
@@ -8221,17 +8102,17 @@
       <c r="C125" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>578</v>
+      <c r="G125" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>578</v>
@@ -8268,17 +8149,17 @@
       <c r="C126" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>578</v>
+      <c r="G126" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>578</v>
@@ -8315,23 +8196,23 @@
       <c r="C127" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>578</v>
+      <c r="G127" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>580</v>
@@ -8362,17 +8243,17 @@
       <c r="C128" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>578</v>
+      <c r="G128" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>578</v>
@@ -8409,23 +8290,23 @@
       <c r="C129" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>578</v>
+      <c r="G129" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>578</v>
@@ -8456,23 +8337,23 @@
       <c r="C130" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>580</v>
+      <c r="G130" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>578</v>
@@ -8503,23 +8384,23 @@
       <c r="C131" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>580</v>
+      <c r="G131" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>578</v>
@@ -8550,23 +8431,23 @@
       <c r="C132" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>579</v>
+      <c r="G132" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>579</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>579</v>
@@ -8597,23 +8478,23 @@
       <c r="C133" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>578</v>
+      <c r="G133" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>579</v>
@@ -8644,17 +8525,17 @@
       <c r="C134" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>578</v>
+      <c r="G134" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>578</v>
@@ -8691,17 +8572,17 @@
       <c r="C135" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>578</v>
@@ -8738,20 +8619,20 @@
       <c r="C136" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>580</v>
+      <c r="G136" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>578</v>
@@ -8785,20 +8666,20 @@
       <c r="C137" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>580</v>
+      <c r="G137" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>578</v>
@@ -8832,17 +8713,17 @@
       <c r="C138" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>578</v>
+      <c r="G138" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>578</v>
@@ -8879,17 +8760,17 @@
       <c r="C139" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>578</v>
+      <c r="G139" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>578</v>
@@ -8926,17 +8807,17 @@
       <c r="C140" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>578</v>
+      <c r="G140" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>578</v>
@@ -8973,23 +8854,23 @@
       <c r="C141" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>578</v>
+      <c r="G141" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>578</v>
@@ -9020,17 +8901,17 @@
       <c r="C142" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>578</v>
+      <c r="G142" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>578</v>
@@ -9067,20 +8948,20 @@
       <c r="C143" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>580</v>
+      <c r="G143" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>578</v>
@@ -9114,17 +8995,17 @@
       <c r="C144" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>578</v>
+      <c r="G144" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>578</v>
@@ -9161,20 +9042,20 @@
       <c r="C145" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>580</v>
+      <c r="G145" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>578</v>
@@ -9208,20 +9089,20 @@
       <c r="C146" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>580</v>
+      <c r="G146" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>578</v>
@@ -9255,20 +9136,20 @@
       <c r="C147" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>580</v>
+      <c r="G147" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>578</v>
@@ -9302,23 +9183,23 @@
       <c r="C148" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>578</v>
+      <c r="G148" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>579</v>
@@ -9349,23 +9230,23 @@
       <c r="C149" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H149" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>579</v>
@@ -9396,17 +9277,17 @@
       <c r="C150" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>578</v>
+      <c r="G150" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>578</v>
@@ -9443,23 +9324,23 @@
       <c r="C151" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>580</v>
+      <c r="G151" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>580</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>578</v>
@@ -9490,22 +9371,22 @@
       <c r="C152" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2" t="s">
-        <v>579</v>
-      </c>
+      <c r="G152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I152" s="2"/>
       <c r="J152" s="1" t="s">
         <v>578</v>
       </c>
@@ -9535,23 +9416,23 @@
       <c r="C153" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>578</v>
+      <c r="G153" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>580</v>
@@ -9582,23 +9463,23 @@
       <c r="C154" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>578</v>
+      <c r="G154" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>578</v>
@@ -9629,23 +9510,23 @@
       <c r="C155" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>578</v>
+      <c r="G155" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>578</v>
@@ -9676,17 +9557,17 @@
       <c r="C156" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>578</v>
+      <c r="G156" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>578</v>
@@ -9723,17 +9604,17 @@
       <c r="C157" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>578</v>
+      <c r="G157" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>578</v>
@@ -9770,17 +9651,17 @@
       <c r="C158" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>578</v>
+      <c r="G158" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>578</v>
@@ -9817,17 +9698,17 @@
       <c r="C159" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>578</v>
+      <c r="G159" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>578</v>
@@ -9864,17 +9745,17 @@
       <c r="C160" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>578</v>
+      <c r="G160" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>578</v>
@@ -9911,23 +9792,23 @@
       <c r="C161" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>578</v>
+      <c r="G161" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>578</v>
@@ -9958,23 +9839,23 @@
       <c r="C162" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="F162" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>579</v>
+      <c r="G162" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>578</v>
@@ -10005,23 +9886,23 @@
       <c r="C163" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>579</v>
+      <c r="G163" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>584</v>
@@ -10052,17 +9933,17 @@
       <c r="C164" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>578</v>
+      <c r="G164" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>578</v>
@@ -10099,17 +9980,17 @@
       <c r="C165" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>578</v>
+      <c r="G165" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>578</v>
@@ -10146,23 +10027,23 @@
       <c r="C166" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>578</v>
+      <c r="G166" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>578</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>579</v>
@@ -10193,17 +10074,17 @@
       <c r="C167" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>578</v>
+      <c r="G167" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>578</v>
@@ -10241,16 +10122,16 @@
         <v>146</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G168" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>578</v>
@@ -10288,22 +10169,22 @@
         <v>146</v>
       </c>
       <c r="D169" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G169" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>578</v>
@@ -10335,22 +10216,22 @@
         <v>146</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G170" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>578</v>
@@ -10382,22 +10263,22 @@
         <v>146</v>
       </c>
       <c r="D171" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G171" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>578</v>
@@ -10429,22 +10310,22 @@
         <v>146</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G172" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>578</v>
@@ -10476,19 +10357,19 @@
         <v>146</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G173" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>578</v>
@@ -10523,16 +10404,16 @@
         <v>146</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G174" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>578</v>
@@ -10570,22 +10451,22 @@
         <v>146</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G175" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>578</v>
@@ -10617,22 +10498,22 @@
         <v>146</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="F176" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G176" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>584</v>
@@ -10664,22 +10545,22 @@
         <v>146</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G177" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>578</v>
@@ -10711,22 +10592,22 @@
         <v>146</v>
       </c>
       <c r="D178" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G178" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>578</v>
@@ -10758,16 +10639,16 @@
         <v>146</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G179" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>578</v>
@@ -10805,22 +10686,22 @@
         <v>146</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G180" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>578</v>
@@ -10852,22 +10733,22 @@
         <v>146</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G181" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>584</v>
@@ -10899,22 +10780,22 @@
         <v>146</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="I182" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>584</v>
@@ -10946,22 +10827,22 @@
         <v>146</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="I183" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>584</v>
@@ -10993,22 +10874,22 @@
         <v>146</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="F184" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="H184" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>579</v>
@@ -11040,22 +10921,22 @@
         <v>146</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="F185" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="H185" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>579</v>
@@ -11087,22 +10968,22 @@
         <v>146</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G186" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>584</v>
@@ -11134,22 +11015,22 @@
         <v>146</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G187" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>578</v>
@@ -11181,22 +11062,22 @@
         <v>146</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G188" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>578</v>
@@ -11228,22 +11109,22 @@
         <v>146</v>
       </c>
       <c r="D189" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G189" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>580</v>
@@ -11275,16 +11156,16 @@
         <v>146</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G190" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>580</v>
@@ -11322,16 +11203,16 @@
         <v>146</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>578</v>
@@ -11369,22 +11250,22 @@
         <v>146</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="H192" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>578</v>
@@ -11416,16 +11297,16 @@
         <v>146</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G193" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>580</v>
@@ -11463,22 +11344,22 @@
         <v>161</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G194" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>579</v>
@@ -11510,22 +11391,22 @@
         <v>161</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G195" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>578</v>
@@ -11557,22 +11438,22 @@
         <v>161</v>
       </c>
       <c r="D196" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G196" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>579</v>
@@ -11604,22 +11485,22 @@
         <v>161</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G197" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>578</v>
@@ -11651,22 +11532,22 @@
         <v>161</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G198" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>578</v>
@@ -11698,16 +11579,16 @@
         <v>161</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G199" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>578</v>
@@ -11745,16 +11626,16 @@
         <v>161</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G200" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>578</v>
@@ -11792,16 +11673,16 @@
         <v>161</v>
       </c>
       <c r="D201" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G201" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>578</v>
@@ -11839,22 +11720,22 @@
         <v>161</v>
       </c>
       <c r="D202" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G202" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>580</v>
@@ -11886,22 +11767,22 @@
         <v>161</v>
       </c>
       <c r="D203" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="F203" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G203" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>578</v>
@@ -11933,16 +11814,16 @@
         <v>161</v>
       </c>
       <c r="D204" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G204" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>578</v>
@@ -11980,16 +11861,16 @@
         <v>161</v>
       </c>
       <c r="D205" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="F205" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G205" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>578</v>
@@ -12027,22 +11908,22 @@
         <v>161</v>
       </c>
       <c r="D206" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G206" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>578</v>
@@ -12074,19 +11955,19 @@
         <v>161</v>
       </c>
       <c r="D207" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="F207" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G207" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>578</v>
@@ -12121,19 +12002,19 @@
         <v>161</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="F208" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G208" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>578</v>
@@ -12168,19 +12049,19 @@
         <v>161</v>
       </c>
       <c r="D209" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G209" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>578</v>
@@ -12215,22 +12096,22 @@
         <v>161</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G210" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>578</v>
@@ -12262,22 +12143,22 @@
         <v>161</v>
       </c>
       <c r="D211" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G211" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>578</v>
@@ -12309,19 +12190,19 @@
         <v>161</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="F212" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G212" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>578</v>
@@ -12356,16 +12237,16 @@
         <v>161</v>
       </c>
       <c r="D213" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="F213" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G213" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>578</v>
@@ -12403,22 +12284,22 @@
         <v>161</v>
       </c>
       <c r="D214" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="F214" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G214" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>580</v>
@@ -12450,22 +12331,22 @@
         <v>161</v>
       </c>
       <c r="D215" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G215" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>580</v>
@@ -12497,22 +12378,22 @@
         <v>161</v>
       </c>
       <c r="D216" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="F216" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G216" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>578</v>
@@ -12544,22 +12425,22 @@
         <v>161</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G217" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>580</v>
@@ -12591,19 +12472,19 @@
         <v>161</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="F218" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G218" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>578</v>
@@ -12638,22 +12519,22 @@
         <v>161</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G219" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>578</v>
@@ -12685,16 +12566,16 @@
         <v>183</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="F220" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G220" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>578</v>
@@ -12732,19 +12613,19 @@
         <v>183</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G221" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>578</v>
@@ -12779,22 +12660,22 @@
         <v>183</v>
       </c>
       <c r="D222" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G222" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>580</v>
@@ -12826,19 +12707,19 @@
         <v>183</v>
       </c>
       <c r="D223" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="F223" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G223" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>578</v>
@@ -12873,19 +12754,19 @@
         <v>183</v>
       </c>
       <c r="D224" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="F224" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G224" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>578</v>
@@ -12920,19 +12801,19 @@
         <v>183</v>
       </c>
       <c r="D225" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="F225" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G225" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>578</v>
@@ -12967,16 +12848,16 @@
         <v>183</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="F226" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G226" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>578</v>
@@ -13014,22 +12895,22 @@
         <v>183</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="F227" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G227" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>578</v>
@@ -13061,19 +12942,19 @@
         <v>183</v>
       </c>
       <c r="D228" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G228" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>578</v>
@@ -13108,22 +12989,22 @@
         <v>183</v>
       </c>
       <c r="D229" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="F229" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G229" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>584</v>
@@ -13155,22 +13036,22 @@
         <v>183</v>
       </c>
       <c r="D230" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="F230" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G230" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>579</v>
@@ -13202,16 +13083,16 @@
         <v>183</v>
       </c>
       <c r="D231" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="F231" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G231" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>578</v>
@@ -13249,22 +13130,22 @@
         <v>183</v>
       </c>
       <c r="D232" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="F232" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G232" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>578</v>
@@ -13296,22 +13177,22 @@
         <v>183</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="F233" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G233" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>578</v>
@@ -13343,16 +13224,16 @@
         <v>183</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="F234" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G234" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>578</v>
@@ -13390,22 +13271,22 @@
         <v>183</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="F235" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G235" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>578</v>
@@ -13437,22 +13318,22 @@
         <v>183</v>
       </c>
       <c r="D236" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="F236" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G236" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>578</v>
@@ -13484,16 +13365,16 @@
         <v>183</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="F237" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G237" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>578</v>
@@ -13531,16 +13412,16 @@
         <v>183</v>
       </c>
       <c r="D238" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="F238" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G238" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>578</v>
@@ -13578,22 +13459,22 @@
         <v>183</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="F239" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G239" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>578</v>
@@ -13625,22 +13506,22 @@
         <v>183</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="F240" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G240" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>578</v>
@@ -13672,22 +13553,22 @@
         <v>183</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="F241" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G241" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>578</v>
@@ -13719,22 +13600,22 @@
         <v>183</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="F242" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G242" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>584</v>
@@ -13766,22 +13647,22 @@
         <v>183</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="F243" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G243" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>579</v>
@@ -13813,22 +13694,22 @@
         <v>183</v>
       </c>
       <c r="D244" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="F244" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G244" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>578</v>
@@ -13860,22 +13741,22 @@
         <v>183</v>
       </c>
       <c r="D245" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="F245" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G245" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>579</v>
@@ -13907,22 +13788,22 @@
         <v>183</v>
       </c>
       <c r="D246" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="F246" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G246" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>578</v>
@@ -13954,22 +13835,22 @@
         <v>184</v>
       </c>
       <c r="D247" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="F247" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G247" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>578</v>
@@ -14001,16 +13882,16 @@
         <v>184</v>
       </c>
       <c r="D248" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G248" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>578</v>
@@ -14048,16 +13929,16 @@
         <v>184</v>
       </c>
       <c r="D249" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="F249" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G249" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>578</v>
@@ -14095,22 +13976,22 @@
         <v>184</v>
       </c>
       <c r="D250" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="F250" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G250" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>584</v>
@@ -14142,22 +14023,22 @@
         <v>184</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="F251" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G251" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>579</v>
@@ -14189,19 +14070,19 @@
         <v>184</v>
       </c>
       <c r="D252" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="F252" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G252" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>578</v>
@@ -14236,22 +14117,22 @@
         <v>184</v>
       </c>
       <c r="D253" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="F253" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G253" s="1" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>578</v>
@@ -14283,22 +14164,22 @@
         <v>184</v>
       </c>
       <c r="D254" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="F254" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G254" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>578</v>
@@ -14330,16 +14211,16 @@
         <v>184</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="F255" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G255" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>578</v>
@@ -14377,16 +14258,16 @@
         <v>184</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="F256" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G256" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>578</v>
@@ -14424,22 +14305,22 @@
         <v>184</v>
       </c>
       <c r="D257" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="F257" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G257" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>580</v>
@@ -14471,22 +14352,22 @@
         <v>184</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="F258" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G258" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>580</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>580</v>
@@ -14518,19 +14399,19 @@
         <v>184</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E259" s="1" t="s">
+      <c r="F259" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G259" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>578</v>
@@ -14565,16 +14446,16 @@
         <v>184</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="F260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G260" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>578</v>
@@ -14612,22 +14493,22 @@
         <v>184</v>
       </c>
       <c r="D261" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="F261" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G261" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>580</v>
@@ -14659,22 +14540,22 @@
         <v>184</v>
       </c>
       <c r="D262" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="F262" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G262" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>580</v>
@@ -14706,16 +14587,16 @@
         <v>184</v>
       </c>
       <c r="D263" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="F263" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G263" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>578</v>
@@ -14753,16 +14634,16 @@
         <v>184</v>
       </c>
       <c r="D264" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F264" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G264" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>578</v>
@@ -14800,16 +14681,16 @@
         <v>184</v>
       </c>
       <c r="D265" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G265" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>578</v>
@@ -14847,16 +14728,16 @@
         <v>184</v>
       </c>
       <c r="D266" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="F266" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G266" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>578</v>
@@ -14894,16 +14775,16 @@
         <v>184</v>
       </c>
       <c r="D267" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G267" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>580</v>
@@ -14941,16 +14822,16 @@
         <v>184</v>
       </c>
       <c r="D268" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G268" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>578</v>
@@ -14988,22 +14869,22 @@
         <v>184</v>
       </c>
       <c r="D269" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E269" s="1" t="s">
+      <c r="F269" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F269" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G269" s="1" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>578</v>
@@ -15035,22 +14916,22 @@
         <v>184</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E270" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G270" s="1" t="s">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>578</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>578</v>

--- a/ladun/file_import/DATA_SISWA.xlsx
+++ b/ladun/file_import/DATA_SISWA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Django\algoritmaC5PemahamanSiswa\ladun\file_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3CC04F-B3F5-40CE-B5E6-9D6EF56A36CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AEB24E-B10C-4510-84B7-963D579FD289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:Q270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
